--- a/Horizontal_bearing/Custom_motor_stats.xlsx
+++ b/Horizontal_bearing/Custom_motor_stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vuw-my.sharepoint.com/personal/allenti_staff_vuw_ac_nz/Documents/Documents/Horizontal_bearing_motor_Tim/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twlln\Documents\RRI\Horizontal_bearing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="11_F25DC773A252ABDACC1048DCB95E69C45BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DA9D37E-6C56-4B29-A22F-3DB3E8B2692A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8E45A5-38A2-4C1C-8062-C8C08585854F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <r>
       <t>Inductance(</t>
@@ -93,12 +93,30 @@
   <si>
     <t>frequency sweep upwards</t>
   </si>
+  <si>
+    <t>1.45*10^-3</t>
+  </si>
+  <si>
+    <t>BackEMF(V/Hz)</t>
+  </si>
+  <si>
+    <t>Pole pairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Critical speed </t>
+  </si>
+  <si>
+    <t>~50Hz</t>
+  </si>
+  <si>
+    <t>Line to line / leakage?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,29 +593,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -620,7 +642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>100</v>
       </c>
@@ -643,7 +665,7 @@
         <v>103.92</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -666,7 +688,7 @@
         <v>103.72</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -689,7 +711,7 @@
         <v>103.93</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3000</v>
       </c>
@@ -712,14 +734,36 @@
         <v>103.93</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -730,6 +774,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="9cfab826-1cf5-423d-b1b4-afd502cd97ad" xsi:nil="true"/>
@@ -745,15 +798,6 @@
     </SharedWithUsers>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1006,13 +1050,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8445DE9F-E3E0-48CA-A418-8C3CA89FE6A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE184BD-21AF-4539-B940-C27C0BE8B485}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE184BD-21AF-4539-B940-C27C0BE8B485}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8445DE9F-E3E0-48CA-A418-8C3CA89FE6A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9cfab826-1cf5-423d-b1b4-afd502cd97ad"/>
+    <ds:schemaRef ds:uri="78177e6f-e60c-4a1f-ade0-9fce12e88bcb"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5BB6525-43AC-46E3-8261-95C5E475698B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5BB6525-43AC-46E3-8261-95C5E475698B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="78177e6f-e60c-4a1f-ade0-9fce12e88bcb"/>
+    <ds:schemaRef ds:uri="9cfab826-1cf5-423d-b1b4-afd502cd97ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>